--- a/data/n2v/tables/model-1-1325-20230829-31.xlsx
+++ b/data/n2v/tables/model-1-1325-20230829-31.xlsx
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -6652,7 +6652,7 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -8218,7 +8218,7 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
